--- a/docs/sdi2223-entrega2-32.xlsx
+++ b/docs/sdi2223-entrega2-32.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/delacal_uniovi_es/Documents/DOCENCIA/SDI/2223/_prácticas-propuestas/continua/practica2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ingenieria Informatica\Tercero\Segundo_Semestre\Sistemas Distribuidos e Internet\Practicas\Entrega2\SDI2223-entrega2-32\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1516" documentId="11_6F87C70C0EEBBB682A1A7E76B668D25BBE68B5E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3121F9E3-DEBA-4A86-9F9E-470A41259419}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas" sheetId="1" r:id="rId1"/>
     <sheet name="Instrucciones" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -507,7 +506,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -911,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1027,8 +1026,105 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1052,103 +1148,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1432,116 +1434,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.83203125" customWidth="1"/>
-    <col min="10" max="10" width="46.58203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="39.875" customWidth="1"/>
+    <col min="10" max="10" width="46.625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.5">
-      <c r="B3" s="62" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-    </row>
-    <row r="4" spans="1:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="63">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="74">
         <f>H41</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.5">
-      <c r="B5" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-    </row>
-    <row r="6" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="63">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="74">
         <f>H83</f>
         <v>0.25</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-    </row>
-    <row r="7" spans="1:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="B7" s="58" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+    </row>
+    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B8" s="66">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="77">
         <f>B4-B6</f>
-        <v>-0.25</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B11" s="59" t="s">
+        <v>10.75</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-    </row>
-    <row r="12" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>76</v>
       </c>
@@ -1568,7 +1570,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>57</v>
       </c>
@@ -1584,7 +1586,7 @@
       </c>
       <c r="E13" s="1">
         <f>COUNTIFS($C$88:$C$154,$B13,$E$88:$E$154,"=OK")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1">
         <f>COUNTIFS($C$88:$C$154,$B13,$E$88:$E$154,"FAIL")</f>
@@ -1592,14 +1594,14 @@
       </c>
       <c r="G13" s="1">
         <f>COUNTIFS($C$88:$C$154,$B13,$E$88:$E$154,"=SIN")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <f>MIN(D13,(E13/C13)*D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>58</v>
       </c>
@@ -1615,11 +1617,11 @@
       </c>
       <c r="E14" s="1">
         <f>COUNTIFS($C$88:$C$154,$B14,$E$88:$E$154,"=OK")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="F14:F40" si="0">COUNTIFS($C$88:$C$154,$B14,$E$88:$E$154,"FAIL")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ref="G14:G39" si="1">COUNTIFS($C$88:$C$154,$B14,$E$88:$E$154,"=SIN")</f>
@@ -1627,10 +1629,10 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ref="H14:H40" si="2">MIN(D14,(E14/C14)*D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>59</v>
       </c>
@@ -1646,7 +1648,7 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" ref="E15:E40" si="4">COUNTIFS($C$88:$C$154,$B15,$E$88:$E$154,"=OK")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
@@ -1654,14 +1656,14 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>60</v>
       </c>
@@ -1677,7 +1679,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
@@ -1685,14 +1687,14 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>61</v>
       </c>
@@ -1708,7 +1710,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
@@ -1716,14 +1718,14 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>62</v>
       </c>
@@ -1739,7 +1741,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
@@ -1747,14 +1749,14 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>63</v>
       </c>
@@ -1770,7 +1772,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
@@ -1778,14 +1780,14 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>64</v>
       </c>
@@ -1801,7 +1803,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
@@ -1809,14 +1811,14 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>65</v>
       </c>
@@ -1832,7 +1834,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
@@ -1840,14 +1842,14 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>66</v>
       </c>
@@ -1863,7 +1865,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
@@ -1871,14 +1873,14 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>77</v>
       </c>
@@ -1894,7 +1896,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
@@ -1902,14 +1904,14 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>78</v>
       </c>
@@ -1925,7 +1927,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
@@ -1933,14 +1935,14 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>85</v>
       </c>
@@ -1956,7 +1958,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
@@ -1964,14 +1966,14 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1987,7 +1989,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
@@ -1995,14 +1997,14 @@
       </c>
       <c r="G26" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -2018,7 +2020,7 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
@@ -2026,14 +2028,14 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
@@ -2049,7 +2051,7 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
@@ -2057,14 +2059,14 @@
       </c>
       <c r="G28" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
@@ -2080,7 +2082,7 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
@@ -2088,14 +2090,14 @@
       </c>
       <c r="G29" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
@@ -2111,7 +2113,7 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
@@ -2119,14 +2121,14 @@
       </c>
       <c r="G30" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>80</v>
       </c>
@@ -2142,7 +2144,7 @@
       </c>
       <c r="E31" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
@@ -2150,14 +2152,14 @@
       </c>
       <c r="G31" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>84</v>
       </c>
@@ -2173,7 +2175,7 @@
       </c>
       <c r="E32" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
@@ -2181,14 +2183,14 @@
       </c>
       <c r="G32" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -2204,7 +2206,7 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
@@ -2212,14 +2214,14 @@
       </c>
       <c r="G33" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -2235,7 +2237,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
@@ -2243,14 +2245,14 @@
       </c>
       <c r="G34" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -2266,7 +2268,7 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
@@ -2274,14 +2276,14 @@
       </c>
       <c r="G35" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -2297,7 +2299,7 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
@@ -2305,14 +2307,14 @@
       </c>
       <c r="G36" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>81</v>
       </c>
@@ -2328,7 +2330,7 @@
       </c>
       <c r="E37" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" s="28">
         <f t="shared" si="0"/>
@@ -2336,14 +2338,14 @@
       </c>
       <c r="G37" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>82</v>
       </c>
@@ -2359,7 +2361,7 @@
       </c>
       <c r="E38" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
@@ -2367,14 +2369,14 @@
       </c>
       <c r="G38" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>83</v>
       </c>
@@ -2390,7 +2392,7 @@
       </c>
       <c r="E39" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
@@ -2398,14 +2400,14 @@
       </c>
       <c r="G39" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -2421,7 +2423,7 @@
       </c>
       <c r="E40" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
@@ -2429,15 +2431,15 @@
       </c>
       <c r="G40" s="1">
         <f>COUNTIFS($C$88:$C$154,$B40,$E$88:$E$154,"=SIN")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="29"/>
     </row>
-    <row r="41" spans="1:14" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="40"/>
       <c r="C41" s="1"/>
       <c r="D41" s="3">
@@ -2451,38 +2453,38 @@
       </c>
       <c r="H41" s="11">
         <f>SUM(H13:H40)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B42" s="67" t="s">
+    <row r="42" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="69"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="80"/>
       <c r="I42" s="25"/>
       <c r="J42" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="21" t="s">
         <v>17</v>
       </c>
@@ -2493,17 +2495,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="43">
         <v>1</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
       <c r="H44" s="32">
         <f>(10-J44)*I44/10</f>
         <v>0.25</v>
@@ -2519,17 +2521,17 @@
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="44">
         <v>2</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
       <c r="H45" s="32">
         <f t="shared" ref="H45:H82" si="5">(10-J45)*I45/10</f>
         <v>0</v>
@@ -2545,17 +2547,17 @@
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="44">
         <v>3</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
       <c r="H46" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2571,17 +2573,17 @@
       <c r="M46" s="35"/>
       <c r="N46" s="35"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="44">
         <v>4</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
       <c r="H47" s="32">
         <f>(10-J47)*I47/10</f>
         <v>0</v>
@@ -2597,15 +2599,15 @@
       <c r="M47" s="35"/>
       <c r="N47" s="35"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="44">
         <v>5</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
       <c r="H48" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2621,15 +2623,15 @@
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="44">
         <v>6</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
       <c r="H49" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2643,15 +2645,15 @@
       <c r="M49" s="35"/>
       <c r="N49" s="35"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="44">
         <v>7</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
       <c r="H50" s="32">
         <f>(10-J50)*I50/10</f>
         <v>0</v>
@@ -2665,15 +2667,15 @@
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="44">
         <v>8</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
       <c r="H51" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2687,15 +2689,15 @@
       <c r="M51" s="35"/>
       <c r="N51" s="35"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="44">
         <v>9</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
       <c r="H52" s="32">
         <f>(10-J52)*I52/10</f>
         <v>0</v>
@@ -2709,15 +2711,15 @@
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="44">
         <v>10</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
       <c r="H53" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2731,15 +2733,15 @@
       <c r="M53" s="35"/>
       <c r="N53" s="35"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="44">
         <v>11</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
       <c r="H54" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2753,15 +2755,15 @@
       <c r="M54" s="35"/>
       <c r="N54" s="35"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="44">
         <v>12</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
       <c r="H55" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2775,15 +2777,15 @@
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="44">
         <v>13</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
       <c r="H56" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2797,15 +2799,15 @@
       <c r="M56" s="35"/>
       <c r="N56" s="35"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="44">
         <v>14</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
       <c r="H57" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2819,15 +2821,15 @@
       <c r="M57" s="35"/>
       <c r="N57" s="35"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="44">
         <v>15</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
       <c r="H58" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2841,15 +2843,15 @@
       <c r="M58" s="35"/>
       <c r="N58" s="35"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="44">
         <v>16</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
       <c r="H59" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2863,15 +2865,15 @@
       <c r="M59" s="35"/>
       <c r="N59" s="35"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="44">
         <v>17</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
       <c r="H60" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2885,15 +2887,15 @@
       <c r="M60" s="35"/>
       <c r="N60" s="35"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="44">
         <v>18</v>
       </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
       <c r="H61" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2907,15 +2909,15 @@
       <c r="M61" s="35"/>
       <c r="N61" s="35"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="44">
         <v>19</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="87"/>
       <c r="H62" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2929,15 +2931,15 @@
       <c r="M62" s="35"/>
       <c r="N62" s="35"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="44">
         <v>20</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="87"/>
       <c r="H63" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2951,15 +2953,15 @@
       <c r="M63" s="35"/>
       <c r="N63" s="35"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="44">
         <v>21</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
       <c r="H64" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2973,15 +2975,15 @@
       <c r="M64" s="35"/>
       <c r="N64" s="35"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="44">
         <v>22</v>
       </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="87"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="87"/>
       <c r="H65" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2995,15 +2997,15 @@
       <c r="M65" s="35"/>
       <c r="N65" s="35"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="44">
         <v>23</v>
       </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
       <c r="H66" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3017,15 +3019,15 @@
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="44">
         <v>24</v>
       </c>
-      <c r="C67" s="53"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
       <c r="H67" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3039,15 +3041,15 @@
       <c r="M67" s="35"/>
       <c r="N67" s="35"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="44">
         <v>25</v>
       </c>
-      <c r="C68" s="53"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
       <c r="H68" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3061,15 +3063,15 @@
       <c r="M68" s="35"/>
       <c r="N68" s="35"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="44">
         <v>26</v>
       </c>
-      <c r="C69" s="53"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87"/>
       <c r="H69" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3083,15 +3085,15 @@
       <c r="M69" s="35"/>
       <c r="N69" s="35"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="44">
         <v>27</v>
       </c>
-      <c r="C70" s="53"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="87"/>
+      <c r="G70" s="87"/>
       <c r="H70" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3105,15 +3107,15 @@
       <c r="M70" s="35"/>
       <c r="N70" s="35"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="44">
         <v>28</v>
       </c>
-      <c r="C71" s="53"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
       <c r="H71" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3127,15 +3129,15 @@
       <c r="M71" s="35"/>
       <c r="N71" s="35"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="44">
         <v>29</v>
       </c>
-      <c r="C72" s="53"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
       <c r="H72" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3149,15 +3151,15 @@
       <c r="M72" s="35"/>
       <c r="N72" s="35"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="44">
         <v>30</v>
       </c>
-      <c r="C73" s="53"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="87"/>
       <c r="H73" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3171,15 +3173,15 @@
       <c r="M73" s="35"/>
       <c r="N73" s="35"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="44">
         <v>31</v>
       </c>
-      <c r="C74" s="53"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
       <c r="H74" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3193,15 +3195,15 @@
       <c r="M74" s="35"/>
       <c r="N74" s="35"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="44">
         <v>32</v>
       </c>
-      <c r="C75" s="53"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
       <c r="H75" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3215,15 +3217,15 @@
       <c r="M75" s="35"/>
       <c r="N75" s="35"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="44">
         <v>33</v>
       </c>
-      <c r="C76" s="53"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="90"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="90"/>
       <c r="H76" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3237,15 +3239,15 @@
       <c r="M76" s="35"/>
       <c r="N76" s="35"/>
     </row>
-    <row r="77" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="45">
         <v>34</v>
       </c>
-      <c r="C77" s="56"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
       <c r="H77" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3259,15 +3261,15 @@
       <c r="M77" s="35"/>
       <c r="N77" s="35"/>
     </row>
-    <row r="78" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="46">
         <v>35</v>
       </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
       <c r="H78" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3281,15 +3283,15 @@
       <c r="M78" s="35"/>
       <c r="N78" s="35"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="46">
         <v>36</v>
       </c>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="89"/>
       <c r="H79" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3303,15 +3305,15 @@
       <c r="M79" s="35"/>
       <c r="N79" s="35"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="46">
         <v>38</v>
       </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="89"/>
       <c r="H80" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3325,15 +3327,15 @@
       <c r="M80" s="35"/>
       <c r="N80" s="35"/>
     </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B81" s="46">
         <v>39</v>
       </c>
-      <c r="C81" s="54"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="89"/>
+      <c r="F81" s="89"/>
+      <c r="G81" s="89"/>
       <c r="H81" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3347,15 +3349,15 @@
       <c r="M81" s="35"/>
       <c r="N81" s="35"/>
     </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B82" s="46">
         <v>40</v>
       </c>
-      <c r="C82" s="54"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="54"/>
+      <c r="C82" s="89"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="89"/>
       <c r="H82" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3369,7 +3371,7 @@
       <c r="M82" s="35"/>
       <c r="N82" s="35"/>
     </row>
-    <row r="83" spans="2:32" ht="26" x14ac:dyDescent="0.6">
+    <row r="83" spans="2:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B83" s="47"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -3384,7 +3386,7 @@
       </c>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B84" s="40"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3393,7 +3395,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="40"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3402,18 +3404,18 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:32" ht="31" x14ac:dyDescent="0.7">
-      <c r="B86" s="70" t="s">
+    <row r="86" spans="2:32" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B86" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="72"/>
-    </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="C86" s="82"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="83"/>
+    </row>
+    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B87" s="39" t="s">
         <v>40</v>
       </c>
@@ -3426,16 +3428,16 @@
       <c r="E87" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="64" t="s">
+      <c r="F87" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="76"/>
       <c r="J87" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B88" s="40">
         <v>1</v>
       </c>
@@ -3446,28 +3448,28 @@
         <v>22</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F88" s="75"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="76"/>
-      <c r="J88" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="61"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
+      <c r="J88" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="K88" s="50"/>
-      <c r="L88" s="50"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="50"/>
-      <c r="O88" s="50"/>
-      <c r="P88" s="50"/>
-      <c r="Q88" s="50"/>
-      <c r="R88" s="50"/>
-      <c r="S88" s="50"/>
-      <c r="T88" s="50"/>
-      <c r="U88" s="50"/>
-      <c r="V88" s="50"/>
-    </row>
-    <row r="89" spans="2:32" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K88" s="93"/>
+      <c r="L88" s="93"/>
+      <c r="M88" s="93"/>
+      <c r="N88" s="93"/>
+      <c r="O88" s="93"/>
+      <c r="P88" s="93"/>
+      <c r="Q88" s="93"/>
+      <c r="R88" s="93"/>
+      <c r="S88" s="93"/>
+      <c r="T88" s="93"/>
+      <c r="U88" s="93"/>
+      <c r="V88" s="93"/>
+    </row>
+    <row r="89" spans="2:32" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="40">
         <v>2</v>
       </c>
@@ -3477,29 +3479,29 @@
       <c r="D89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="75"/>
-      <c r="G89" s="76"/>
-      <c r="H89" s="76"/>
-      <c r="J89" s="50" t="s">
+      <c r="E89" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="61"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="62"/>
+      <c r="J89" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="K89" s="50"/>
-      <c r="L89" s="50"/>
-      <c r="M89" s="50"/>
-      <c r="N89" s="50"/>
-      <c r="O89" s="50"/>
-      <c r="P89" s="50"/>
-      <c r="Q89" s="50"/>
-      <c r="R89" s="50"/>
-      <c r="S89" s="50"/>
-      <c r="T89" s="50"/>
-      <c r="U89" s="50"/>
-      <c r="V89" s="50"/>
-    </row>
-    <row r="90" spans="2:32" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K89" s="93"/>
+      <c r="L89" s="93"/>
+      <c r="M89" s="93"/>
+      <c r="N89" s="93"/>
+      <c r="O89" s="93"/>
+      <c r="P89" s="93"/>
+      <c r="Q89" s="93"/>
+      <c r="R89" s="93"/>
+      <c r="S89" s="93"/>
+      <c r="T89" s="93"/>
+      <c r="U89" s="93"/>
+      <c r="V89" s="93"/>
+    </row>
+    <row r="90" spans="2:32" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="40">
         <v>3</v>
       </c>
@@ -3509,22 +3511,22 @@
       <c r="D90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E90" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="75"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="76"/>
-      <c r="J90" s="50" t="s">
+      <c r="E90" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="61"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62"/>
+      <c r="J90" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="K90" s="50"/>
-      <c r="L90" s="50"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="50"/>
-      <c r="O90" s="50"/>
-    </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="K90" s="93"/>
+      <c r="L90" s="93"/>
+      <c r="M90" s="93"/>
+      <c r="N90" s="93"/>
+      <c r="O90" s="93"/>
+    </row>
+    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B91" s="40">
         <v>4</v>
       </c>
@@ -3534,22 +3536,22 @@
       <c r="D91" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E91" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F91" s="75"/>
-      <c r="G91" s="76"/>
-      <c r="H91" s="76"/>
-      <c r="J91" s="50" t="s">
+      <c r="E91" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="61"/>
+      <c r="G91" s="62"/>
+      <c r="H91" s="62"/>
+      <c r="J91" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="50"/>
-      <c r="O91" s="50"/>
-    </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="K91" s="93"/>
+      <c r="L91" s="93"/>
+      <c r="M91" s="93"/>
+      <c r="N91" s="93"/>
+      <c r="O91" s="93"/>
+    </row>
+    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B92" s="40">
         <v>5</v>
       </c>
@@ -3559,22 +3561,22 @@
       <c r="D92" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E92" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F92" s="75"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="76"/>
-      <c r="J92" s="50" t="s">
+      <c r="E92" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="61"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="J92" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="K92" s="50"/>
-      <c r="L92" s="50"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="50"/>
-      <c r="O92" s="50"/>
-    </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="K92" s="93"/>
+      <c r="L92" s="93"/>
+      <c r="M92" s="93"/>
+      <c r="N92" s="93"/>
+      <c r="O92" s="93"/>
+    </row>
+    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B93" s="48">
         <v>6</v>
       </c>
@@ -3584,35 +3586,35 @@
       <c r="D93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F93" s="75"/>
-      <c r="G93" s="76"/>
-      <c r="H93" s="76"/>
-      <c r="J93" s="50" t="s">
+      <c r="E93" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="61"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="62"/>
+      <c r="J93" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="K93" s="50"/>
-      <c r="L93" s="50"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="50"/>
-      <c r="O93" s="50"/>
-      <c r="T93" s="50"/>
-      <c r="U93" s="50"/>
-      <c r="V93" s="50"/>
-      <c r="W93" s="50"/>
-      <c r="X93" s="50"/>
-      <c r="Y93" s="50"/>
-      <c r="Z93" s="50"/>
-      <c r="AA93" s="50"/>
-      <c r="AB93" s="50"/>
-      <c r="AC93" s="50"/>
-      <c r="AD93" s="50"/>
-      <c r="AE93" s="50"/>
-      <c r="AF93" s="50"/>
-    </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="K93" s="93"/>
+      <c r="L93" s="93"/>
+      <c r="M93" s="93"/>
+      <c r="N93" s="93"/>
+      <c r="O93" s="93"/>
+      <c r="T93" s="93"/>
+      <c r="U93" s="93"/>
+      <c r="V93" s="93"/>
+      <c r="W93" s="93"/>
+      <c r="X93" s="93"/>
+      <c r="Y93" s="93"/>
+      <c r="Z93" s="93"/>
+      <c r="AA93" s="93"/>
+      <c r="AB93" s="93"/>
+      <c r="AC93" s="93"/>
+      <c r="AD93" s="93"/>
+      <c r="AE93" s="93"/>
+      <c r="AF93" s="93"/>
+    </row>
+    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B94" s="40">
         <v>7</v>
       </c>
@@ -3622,22 +3624,22 @@
       <c r="D94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E94" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F94" s="75"/>
-      <c r="G94" s="76"/>
-      <c r="H94" s="76"/>
-      <c r="J94" s="50" t="s">
+      <c r="E94" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="61"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="62"/>
+      <c r="J94" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="50"/>
-      <c r="O94" s="50"/>
-    </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="K94" s="93"/>
+      <c r="L94" s="93"/>
+      <c r="M94" s="93"/>
+      <c r="N94" s="93"/>
+      <c r="O94" s="93"/>
+    </row>
+    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B95" s="40">
         <v>8</v>
       </c>
@@ -3647,22 +3649,22 @@
       <c r="D95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E95" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F95" s="75"/>
-      <c r="G95" s="76"/>
-      <c r="H95" s="76"/>
-      <c r="J95" s="50" t="s">
+      <c r="E95" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="61"/>
+      <c r="G95" s="62"/>
+      <c r="H95" s="62"/>
+      <c r="J95" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="K95" s="50"/>
-      <c r="L95" s="50"/>
-      <c r="M95" s="50"/>
-      <c r="N95" s="50"/>
-      <c r="O95" s="50"/>
-    </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="K95" s="93"/>
+      <c r="L95" s="93"/>
+      <c r="M95" s="93"/>
+      <c r="N95" s="93"/>
+      <c r="O95" s="93"/>
+    </row>
+    <row r="96" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B96" s="40">
         <v>9</v>
       </c>
@@ -3672,22 +3674,22 @@
       <c r="D96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E96" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96" s="75"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="76"/>
-      <c r="J96" s="50" t="s">
+      <c r="E96" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="61"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="62"/>
+      <c r="J96" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="K96" s="50"/>
-      <c r="L96" s="50"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="50"/>
-      <c r="O96" s="50"/>
-    </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="K96" s="93"/>
+      <c r="L96" s="93"/>
+      <c r="M96" s="93"/>
+      <c r="N96" s="93"/>
+      <c r="O96" s="93"/>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B97" s="40">
         <v>10</v>
       </c>
@@ -3697,22 +3699,22 @@
       <c r="D97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F97" s="75"/>
-      <c r="G97" s="76"/>
-      <c r="H97" s="76"/>
-      <c r="J97" s="50" t="s">
+      <c r="E97" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="61"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="62"/>
+      <c r="J97" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="K97" s="50"/>
-      <c r="L97" s="50"/>
-      <c r="M97" s="50"/>
-      <c r="N97" s="50"/>
-      <c r="O97" s="50"/>
-    </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="K97" s="93"/>
+      <c r="L97" s="93"/>
+      <c r="M97" s="93"/>
+      <c r="N97" s="93"/>
+      <c r="O97" s="93"/>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B98" s="40">
         <v>11</v>
       </c>
@@ -3722,22 +3724,22 @@
       <c r="D98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" s="75"/>
-      <c r="G98" s="76"/>
-      <c r="H98" s="76"/>
-      <c r="J98" s="50" t="s">
+      <c r="E98" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="61"/>
+      <c r="G98" s="62"/>
+      <c r="H98" s="62"/>
+      <c r="J98" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="K98" s="50"/>
-      <c r="L98" s="50"/>
-      <c r="M98" s="50"/>
-      <c r="N98" s="50"/>
-      <c r="O98" s="50"/>
-    </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="K98" s="93"/>
+      <c r="L98" s="93"/>
+      <c r="M98" s="93"/>
+      <c r="N98" s="93"/>
+      <c r="O98" s="93"/>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B99" s="40">
         <v>12</v>
       </c>
@@ -3747,22 +3749,22 @@
       <c r="D99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E99" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" s="75"/>
-      <c r="G99" s="76"/>
-      <c r="H99" s="76"/>
-      <c r="J99" s="50" t="s">
+      <c r="E99" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="61"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
+      <c r="J99" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="K99" s="50"/>
-      <c r="L99" s="50"/>
-      <c r="M99" s="50"/>
-      <c r="N99" s="50"/>
-      <c r="O99" s="50"/>
-    </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="K99" s="93"/>
+      <c r="L99" s="93"/>
+      <c r="M99" s="93"/>
+      <c r="N99" s="93"/>
+      <c r="O99" s="93"/>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B100" s="40">
         <v>13</v>
       </c>
@@ -3772,22 +3774,22 @@
       <c r="D100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F100" s="75"/>
-      <c r="G100" s="76"/>
-      <c r="H100" s="76"/>
-      <c r="J100" s="50" t="s">
+      <c r="E100" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="61"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="62"/>
+      <c r="J100" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="K100" s="50"/>
-      <c r="L100" s="50"/>
-      <c r="M100" s="50"/>
-      <c r="N100" s="50"/>
-      <c r="O100" s="50"/>
-    </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="K100" s="93"/>
+      <c r="L100" s="93"/>
+      <c r="M100" s="93"/>
+      <c r="N100" s="93"/>
+      <c r="O100" s="93"/>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B101" s="40">
         <v>14</v>
       </c>
@@ -3797,22 +3799,22 @@
       <c r="D101" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E101" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" s="75"/>
-      <c r="G101" s="76"/>
-      <c r="H101" s="76"/>
-      <c r="J101" s="50" t="s">
+      <c r="E101" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" s="61"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="62"/>
+      <c r="J101" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="K101" s="50"/>
-      <c r="L101" s="50"/>
-      <c r="M101" s="50"/>
-      <c r="N101" s="50"/>
-      <c r="O101" s="50"/>
-    </row>
-    <row r="102" spans="2:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K101" s="93"/>
+      <c r="L101" s="93"/>
+      <c r="M101" s="93"/>
+      <c r="N101" s="93"/>
+      <c r="O101" s="93"/>
+    </row>
+    <row r="102" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="40">
         <v>15</v>
       </c>
@@ -3822,12 +3824,12 @@
       <c r="D102" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E102" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F102" s="75"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="76"/>
+      <c r="E102" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" s="61"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
       <c r="J102" s="26" t="s">
         <v>92</v>
       </c>
@@ -3837,230 +3839,230 @@
       <c r="N102" s="26"/>
       <c r="O102" s="26"/>
     </row>
-    <row r="103" spans="2:23" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="82">
+    <row r="103" spans="2:23" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="53">
         <v>16</v>
       </c>
-      <c r="C103" s="83">
+      <c r="C103" s="54">
         <v>6</v>
       </c>
-      <c r="D103" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E103" s="84" t="s">
+      <c r="D103" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="65"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="J103" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="52"/>
+      <c r="N103" s="52"/>
+      <c r="O103" s="52"/>
+      <c r="R103" s="52"/>
+      <c r="S103" s="52"/>
+      <c r="T103" s="56"/>
+      <c r="U103" s="56"/>
+      <c r="V103" s="56"/>
+      <c r="W103" s="56"/>
+    </row>
+    <row r="104" spans="2:23" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="53">
+        <v>17</v>
+      </c>
+      <c r="C104" s="54">
+        <v>6</v>
+      </c>
+      <c r="D104" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" s="65"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
+      <c r="J104" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="K104" s="52"/>
+      <c r="L104" s="52"/>
+      <c r="M104" s="52"/>
+      <c r="N104" s="52"/>
+      <c r="O104" s="52"/>
+      <c r="P104" s="52"/>
+      <c r="Q104" s="52"/>
+    </row>
+    <row r="105" spans="2:23" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="53">
+        <v>18</v>
+      </c>
+      <c r="C105" s="54">
+        <v>7</v>
+      </c>
+      <c r="D105" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="65"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
+      <c r="J105" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K105" s="57"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="57"/>
+      <c r="N105" s="57"/>
+      <c r="O105" s="57"/>
+    </row>
+    <row r="106" spans="2:23" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="53">
+        <v>19</v>
+      </c>
+      <c r="C106" s="54">
+        <v>8</v>
+      </c>
+      <c r="D106" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" s="65"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="66"/>
+      <c r="J106" s="52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="2:23" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="53">
+        <v>20</v>
+      </c>
+      <c r="C107" s="54">
+        <v>8</v>
+      </c>
+      <c r="D107" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="65"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="66"/>
+      <c r="J107" s="52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="2:23" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="53">
+        <v>21</v>
+      </c>
+      <c r="C108" s="54">
+        <v>8</v>
+      </c>
+      <c r="D108" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" s="65"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
+      <c r="J108" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="53">
+        <v>22</v>
+      </c>
+      <c r="C109" s="54">
+        <v>8</v>
+      </c>
+      <c r="D109" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" s="65"/>
+      <c r="G109" s="66"/>
+      <c r="H109" s="66"/>
+      <c r="J109" s="52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="2:23" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="53">
         <v>23</v>
       </c>
-      <c r="F103" s="85"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="86"/>
-      <c r="J103" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="K103" s="81"/>
-      <c r="L103" s="81"/>
-      <c r="M103" s="81"/>
-      <c r="N103" s="81"/>
-      <c r="O103" s="81"/>
-      <c r="R103" s="81"/>
-      <c r="S103" s="81"/>
-      <c r="T103" s="88"/>
-      <c r="U103" s="88"/>
-      <c r="V103" s="88"/>
-      <c r="W103" s="88"/>
-    </row>
-    <row r="104" spans="2:23" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="82">
-        <v>17</v>
-      </c>
-      <c r="C104" s="83">
-        <v>6</v>
-      </c>
-      <c r="D104" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F104" s="85"/>
-      <c r="G104" s="86"/>
-      <c r="H104" s="86"/>
-      <c r="J104" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="K104" s="81"/>
-      <c r="L104" s="81"/>
-      <c r="M104" s="81"/>
-      <c r="N104" s="81"/>
-      <c r="O104" s="81"/>
-      <c r="P104" s="81"/>
-      <c r="Q104" s="81"/>
-    </row>
-    <row r="105" spans="2:23" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="82">
-        <v>18</v>
-      </c>
-      <c r="C105" s="83">
-        <v>7</v>
-      </c>
-      <c r="D105" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E105" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" s="85"/>
-      <c r="G105" s="86"/>
-      <c r="H105" s="86"/>
-      <c r="J105" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="K105" s="89"/>
-      <c r="L105" s="89"/>
-      <c r="M105" s="89"/>
-      <c r="N105" s="89"/>
-      <c r="O105" s="89"/>
-    </row>
-    <row r="106" spans="2:23" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="82">
-        <v>19</v>
-      </c>
-      <c r="C106" s="83">
-        <v>8</v>
-      </c>
-      <c r="D106" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F106" s="85"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="86"/>
-      <c r="J106" s="81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="2:23" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="82">
-        <v>20</v>
-      </c>
-      <c r="C107" s="83">
-        <v>8</v>
-      </c>
-      <c r="D107" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E107" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F107" s="85"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="86"/>
-      <c r="J107" s="81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="108" spans="2:23" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="82">
-        <v>21</v>
-      </c>
-      <c r="C108" s="83">
-        <v>8</v>
-      </c>
-      <c r="D108" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F108" s="85"/>
-      <c r="G108" s="86"/>
-      <c r="H108" s="86"/>
-      <c r="J108" s="81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="109" spans="2:23" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="82">
-        <v>22</v>
-      </c>
-      <c r="C109" s="83">
-        <v>8</v>
-      </c>
-      <c r="D109" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E109" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F109" s="85"/>
-      <c r="G109" s="86"/>
-      <c r="H109" s="86"/>
-      <c r="J109" s="81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="110" spans="2:23" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="82">
-        <v>23</v>
-      </c>
-      <c r="C110" s="83">
+      <c r="C110" s="54">
         <v>9</v>
       </c>
-      <c r="D110" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E110" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F110" s="85"/>
-      <c r="G110" s="86"/>
-      <c r="H110" s="86"/>
-      <c r="J110" s="81" t="s">
+      <c r="D110" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" s="65"/>
+      <c r="G110" s="66"/>
+      <c r="H110" s="66"/>
+      <c r="J110" s="52" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="2:23" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="82">
+    <row r="111" spans="2:23" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="53">
         <v>24</v>
       </c>
-      <c r="C111" s="83">
+      <c r="C111" s="54">
         <v>9</v>
       </c>
-      <c r="D111" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F111" s="85"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="86"/>
-      <c r="J111" s="81" t="s">
+      <c r="D111" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111" s="65"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="J111" s="52" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="2:23" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="82">
+    <row r="112" spans="2:23" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="53">
         <v>25</v>
       </c>
-      <c r="C112" s="83">
+      <c r="C112" s="54">
         <v>9</v>
       </c>
-      <c r="D112" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F112" s="85"/>
-      <c r="G112" s="86"/>
-      <c r="H112" s="86"/>
-      <c r="J112" s="81" t="s">
+      <c r="D112" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" s="65"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="66"/>
+      <c r="J112" s="52" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="40">
         <v>26</v>
       </c>
@@ -4070,87 +4072,87 @@
       <c r="D113" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E113" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F113" s="75"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76"/>
-      <c r="J113" s="81" t="s">
+      <c r="E113" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" s="61"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
+      <c r="J113" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="K113" s="87"/>
-      <c r="L113" s="87"/>
-      <c r="M113" s="87"/>
-      <c r="N113" s="87"/>
-      <c r="O113" s="87"/>
-      <c r="P113" s="87"/>
-      <c r="Q113" s="87"/>
-      <c r="R113" s="87"/>
-      <c r="S113" s="87"/>
-      <c r="T113" s="87"/>
-    </row>
-    <row r="114" spans="2:20" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="82">
+      <c r="K113" s="55"/>
+      <c r="L113" s="55"/>
+      <c r="M113" s="55"/>
+      <c r="N113" s="55"/>
+      <c r="O113" s="55"/>
+      <c r="P113" s="55"/>
+      <c r="Q113" s="55"/>
+      <c r="R113" s="55"/>
+      <c r="S113" s="55"/>
+      <c r="T113" s="55"/>
+    </row>
+    <row r="114" spans="2:20" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="53">
         <v>27</v>
       </c>
-      <c r="C114" s="83">
+      <c r="C114" s="54">
         <v>10</v>
       </c>
-      <c r="D114" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F114" s="85"/>
-      <c r="G114" s="86"/>
-      <c r="H114" s="86"/>
-      <c r="J114" s="81" t="s">
+      <c r="D114" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" s="65"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="66"/>
+      <c r="J114" s="52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="82">
+    <row r="115" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="53">
         <v>28</v>
       </c>
-      <c r="C115" s="83">
+      <c r="C115" s="54">
         <v>10</v>
       </c>
-      <c r="D115" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F115" s="85"/>
-      <c r="G115" s="86"/>
-      <c r="H115" s="86"/>
-      <c r="J115" s="81" t="s">
+      <c r="D115" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" s="65"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="J115" s="52" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="82">
+    <row r="116" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="53">
         <v>29</v>
       </c>
-      <c r="C116" s="83">
+      <c r="C116" s="54">
         <v>11</v>
       </c>
-      <c r="D116" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E116" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F116" s="85"/>
-      <c r="G116" s="86"/>
-      <c r="H116" s="86"/>
-      <c r="J116" s="81" t="s">
+      <c r="D116" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" s="65"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="J116" s="52" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B117" s="40">
         <v>30</v>
       </c>
@@ -4160,27 +4162,27 @@
       <c r="D117" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F117" s="75"/>
-      <c r="G117" s="76"/>
-      <c r="H117" s="76"/>
-      <c r="J117" s="81" t="s">
+      <c r="E117" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="61"/>
+      <c r="G117" s="62"/>
+      <c r="H117" s="62"/>
+      <c r="J117" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="K117" s="87"/>
-      <c r="L117" s="87"/>
-      <c r="M117" s="87"/>
-      <c r="N117" s="87"/>
-      <c r="O117" s="87"/>
-      <c r="P117" s="87"/>
-      <c r="Q117" s="87"/>
-      <c r="R117" s="87"/>
-      <c r="S117" s="87"/>
-      <c r="T117" s="87"/>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K117" s="55"/>
+      <c r="L117" s="55"/>
+      <c r="M117" s="55"/>
+      <c r="N117" s="55"/>
+      <c r="O117" s="55"/>
+      <c r="P117" s="55"/>
+      <c r="Q117" s="55"/>
+      <c r="R117" s="55"/>
+      <c r="S117" s="55"/>
+      <c r="T117" s="55"/>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118" s="40">
         <v>31</v>
       </c>
@@ -4190,27 +4192,27 @@
       <c r="D118" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E118" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F118" s="75"/>
-      <c r="G118" s="76"/>
-      <c r="H118" s="76"/>
-      <c r="J118" s="81" t="s">
+      <c r="E118" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F118" s="61"/>
+      <c r="G118" s="62"/>
+      <c r="H118" s="62"/>
+      <c r="J118" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="K118" s="87"/>
-      <c r="L118" s="87"/>
-      <c r="M118" s="87"/>
-      <c r="N118" s="87"/>
-      <c r="O118" s="87"/>
-      <c r="P118" s="87"/>
-      <c r="Q118" s="87"/>
-      <c r="R118" s="87"/>
-      <c r="S118" s="87"/>
-      <c r="T118" s="87"/>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K118" s="55"/>
+      <c r="L118" s="55"/>
+      <c r="M118" s="55"/>
+      <c r="N118" s="55"/>
+      <c r="O118" s="55"/>
+      <c r="P118" s="55"/>
+      <c r="Q118" s="55"/>
+      <c r="R118" s="55"/>
+      <c r="S118" s="55"/>
+      <c r="T118" s="55"/>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119" s="40">
         <v>32</v>
       </c>
@@ -4220,311 +4222,311 @@
       <c r="D119" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E119" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F119" s="75"/>
-      <c r="G119" s="76"/>
-      <c r="H119" s="76"/>
-      <c r="J119" s="81" t="s">
+      <c r="E119" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" s="61"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="62"/>
+      <c r="J119" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="K119" s="87"/>
-      <c r="L119" s="87"/>
-      <c r="M119" s="87"/>
-      <c r="N119" s="87"/>
-      <c r="O119" s="87"/>
-      <c r="P119" s="87"/>
-      <c r="Q119" s="87"/>
-      <c r="R119" s="87"/>
-      <c r="S119" s="87"/>
-      <c r="T119" s="87"/>
-    </row>
-    <row r="120" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="82">
+      <c r="K119" s="55"/>
+      <c r="L119" s="55"/>
+      <c r="M119" s="55"/>
+      <c r="N119" s="55"/>
+      <c r="O119" s="55"/>
+      <c r="P119" s="55"/>
+      <c r="Q119" s="55"/>
+      <c r="R119" s="55"/>
+      <c r="S119" s="55"/>
+      <c r="T119" s="55"/>
+    </row>
+    <row r="120" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="53">
         <v>33</v>
       </c>
-      <c r="C120" s="83">
+      <c r="C120" s="54">
         <v>13</v>
       </c>
-      <c r="D120" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E120" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" s="85"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86"/>
-      <c r="J120" s="81" t="s">
+      <c r="D120" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F120" s="65"/>
+      <c r="G120" s="66"/>
+      <c r="H120" s="66"/>
+      <c r="J120" s="52" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="82">
-        <v>34</v>
-      </c>
-      <c r="C121" s="83">
+    <row r="121" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="53">
+        <v>34</v>
+      </c>
+      <c r="C121" s="54">
         <v>13</v>
       </c>
-      <c r="D121" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E121" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F121" s="85"/>
-      <c r="G121" s="86"/>
-      <c r="H121" s="86"/>
-      <c r="J121" s="81" t="s">
+      <c r="D121" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F121" s="65"/>
+      <c r="G121" s="66"/>
+      <c r="H121" s="66"/>
+      <c r="J121" s="52" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="82">
+    <row r="122" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="53">
         <v>35</v>
       </c>
-      <c r="C122" s="83">
+      <c r="C122" s="54">
         <v>13</v>
       </c>
-      <c r="D122" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E122" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F122" s="85"/>
-      <c r="G122" s="86"/>
-      <c r="H122" s="86"/>
-      <c r="J122" s="81" t="s">
+      <c r="D122" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F122" s="65"/>
+      <c r="G122" s="66"/>
+      <c r="H122" s="66"/>
+      <c r="J122" s="52" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="82">
+    <row r="123" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="53">
         <v>36</v>
       </c>
-      <c r="C123" s="83">
+      <c r="C123" s="54">
         <v>13</v>
       </c>
-      <c r="D123" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E123" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123" s="85"/>
-      <c r="G123" s="86"/>
-      <c r="H123" s="86"/>
-      <c r="J123" s="81" t="s">
+      <c r="D123" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F123" s="65"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="66"/>
+      <c r="J123" s="52" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="82">
+    <row r="124" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="53">
         <v>37</v>
       </c>
-      <c r="C124" s="83">
+      <c r="C124" s="54">
         <v>13</v>
       </c>
-      <c r="D124" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E124" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F124" s="85"/>
-      <c r="G124" s="86"/>
-      <c r="H124" s="86"/>
-      <c r="J124" s="81" t="s">
+      <c r="D124" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F124" s="65"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="66"/>
+      <c r="J124" s="52" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="82">
+    <row r="125" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="53">
         <v>38</v>
       </c>
-      <c r="C125" s="83">
+      <c r="C125" s="54">
         <v>14</v>
       </c>
-      <c r="D125" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F125" s="85"/>
-      <c r="G125" s="86"/>
-      <c r="H125" s="86"/>
-      <c r="I125" s="91" t="s">
+      <c r="D125" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125" s="65"/>
+      <c r="G125" s="66"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="J125" s="81" t="s">
+      <c r="J125" s="52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="126" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="82">
+    <row r="126" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="53">
         <v>39</v>
       </c>
-      <c r="C126" s="83">
+      <c r="C126" s="54">
         <v>14</v>
       </c>
-      <c r="D126" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E126" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F126" s="85"/>
-      <c r="G126" s="86"/>
-      <c r="H126" s="86"/>
-      <c r="I126" s="91" t="s">
+      <c r="D126" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F126" s="65"/>
+      <c r="G126" s="66"/>
+      <c r="H126" s="66"/>
+      <c r="I126" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="J126" s="81" t="s">
+      <c r="J126" s="52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="82">
+    <row r="127" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="53">
         <v>40</v>
       </c>
-      <c r="C127" s="83">
+      <c r="C127" s="54">
         <v>14</v>
       </c>
-      <c r="D127" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E127" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F127" s="85"/>
-      <c r="G127" s="86"/>
-      <c r="H127" s="86"/>
-      <c r="I127" s="91" t="s">
+      <c r="D127" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" s="65"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="J127" s="81" t="s">
+      <c r="J127" s="52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="82">
+    <row r="128" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="53">
         <v>41</v>
       </c>
-      <c r="C128" s="83">
+      <c r="C128" s="54">
         <v>15</v>
       </c>
-      <c r="D128" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E128" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F128" s="85"/>
-      <c r="G128" s="86"/>
-      <c r="H128" s="86"/>
-      <c r="I128" s="92" t="s">
+      <c r="D128" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128" s="65"/>
+      <c r="G128" s="66"/>
+      <c r="H128" s="66"/>
+      <c r="I128" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="J128" s="81" t="s">
+      <c r="J128" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="82">
+    <row r="129" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="53">
         <v>42</v>
       </c>
-      <c r="C129" s="83">
+      <c r="C129" s="54">
         <v>16</v>
       </c>
-      <c r="D129" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E129" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F129" s="85"/>
-      <c r="G129" s="86"/>
-      <c r="H129" s="86"/>
-      <c r="I129" s="92" t="s">
+      <c r="D129" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F129" s="65"/>
+      <c r="G129" s="66"/>
+      <c r="H129" s="66"/>
+      <c r="I129" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="J129" s="81" t="s">
+      <c r="J129" s="52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="130" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="82">
+    <row r="130" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="53">
         <v>43</v>
       </c>
-      <c r="C130" s="83">
+      <c r="C130" s="54">
         <v>16</v>
       </c>
-      <c r="D130" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E130" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F130" s="85"/>
-      <c r="G130" s="86"/>
-      <c r="H130" s="86"/>
-      <c r="I130" s="92" t="s">
+      <c r="D130" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F130" s="65"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="J130" s="81" t="s">
+      <c r="J130" s="52" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="82">
+    <row r="131" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="53">
         <v>44</v>
       </c>
-      <c r="C131" s="83">
+      <c r="C131" s="54">
         <v>17</v>
       </c>
-      <c r="D131" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E131" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F131" s="85"/>
-      <c r="G131" s="86"/>
-      <c r="H131" s="86"/>
-      <c r="I131" s="92" t="s">
+      <c r="D131" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" s="65"/>
+      <c r="G131" s="66"/>
+      <c r="H131" s="66"/>
+      <c r="I131" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J131" s="81" t="s">
+      <c r="J131" s="52" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="82">
+    <row r="132" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="53">
         <v>45</v>
       </c>
-      <c r="C132" s="83">
+      <c r="C132" s="54">
         <v>18</v>
       </c>
-      <c r="D132" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E132" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F132" s="85"/>
-      <c r="G132" s="86"/>
-      <c r="H132" s="86"/>
-      <c r="I132" s="92" t="s">
+      <c r="D132" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F132" s="65"/>
+      <c r="G132" s="66"/>
+      <c r="H132" s="66"/>
+      <c r="I132" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J132" s="81" t="s">
+      <c r="J132" s="52" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B133" s="41">
         <v>46</v>
       </c>
@@ -4535,29 +4537,29 @@
         <v>24</v>
       </c>
       <c r="E133" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F133" s="77"/>
-      <c r="G133" s="78"/>
-      <c r="H133" s="78"/>
-      <c r="I133" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" s="63"/>
+      <c r="G133" s="64"/>
+      <c r="H133" s="64"/>
+      <c r="I133" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="J133" s="81" t="s">
+      <c r="J133" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="K133" s="87"/>
-      <c r="L133" s="87"/>
-      <c r="M133" s="87"/>
-      <c r="N133" s="87"/>
-      <c r="O133" s="87"/>
-      <c r="P133" s="87"/>
-      <c r="Q133" s="87"/>
-      <c r="R133" s="87"/>
-      <c r="S133" s="87"/>
-      <c r="T133" s="87"/>
-    </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="K133" s="55"/>
+      <c r="L133" s="55"/>
+      <c r="M133" s="55"/>
+      <c r="N133" s="55"/>
+      <c r="O133" s="55"/>
+      <c r="P133" s="55"/>
+      <c r="Q133" s="55"/>
+      <c r="R133" s="55"/>
+      <c r="S133" s="55"/>
+      <c r="T133" s="55"/>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B134" s="41">
         <v>47</v>
       </c>
@@ -4568,190 +4570,190 @@
         <v>24</v>
       </c>
       <c r="E134" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F134" s="63"/>
+      <c r="G134" s="64"/>
+      <c r="H134" s="64"/>
+      <c r="I134" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="J134" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K134" s="55"/>
+      <c r="L134" s="55"/>
+      <c r="M134" s="55"/>
+      <c r="N134" s="55"/>
+      <c r="O134" s="55"/>
+      <c r="P134" s="55"/>
+      <c r="Q134" s="55"/>
+      <c r="R134" s="55"/>
+      <c r="S134" s="55"/>
+      <c r="T134" s="55"/>
+    </row>
+    <row r="135" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="53">
+        <v>48</v>
+      </c>
+      <c r="C135" s="54">
+        <v>21</v>
+      </c>
+      <c r="D135" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F135" s="65"/>
+      <c r="G135" s="66"/>
+      <c r="H135" s="66"/>
+      <c r="I135" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J135" s="52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="53">
+        <v>49</v>
+      </c>
+      <c r="C136" s="54">
+        <v>21</v>
+      </c>
+      <c r="D136" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F136" s="65"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="66"/>
+      <c r="I136" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J136" s="52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="53">
+        <v>50</v>
+      </c>
+      <c r="C137" s="54">
+        <v>21</v>
+      </c>
+      <c r="D137" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F137" s="65"/>
+      <c r="G137" s="66"/>
+      <c r="H137" s="66"/>
+      <c r="I137" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J137" s="52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="53">
+        <v>51</v>
+      </c>
+      <c r="C138" s="54">
+        <v>22</v>
+      </c>
+      <c r="D138" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F138" s="65"/>
+      <c r="G138" s="66"/>
+      <c r="H138" s="66"/>
+      <c r="I138" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="J138" s="52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="53">
+        <v>52</v>
+      </c>
+      <c r="C139" s="54">
         <v>23</v>
       </c>
-      <c r="F134" s="77"/>
-      <c r="G134" s="78"/>
-      <c r="H134" s="78"/>
-      <c r="I134" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="J134" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="K134" s="87"/>
-      <c r="L134" s="87"/>
-      <c r="M134" s="87"/>
-      <c r="N134" s="87"/>
-      <c r="O134" s="87"/>
-      <c r="P134" s="87"/>
-      <c r="Q134" s="87"/>
-      <c r="R134" s="87"/>
-      <c r="S134" s="87"/>
-      <c r="T134" s="87"/>
-    </row>
-    <row r="135" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="82">
-        <v>48</v>
-      </c>
-      <c r="C135" s="83">
-        <v>21</v>
-      </c>
-      <c r="D135" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E135" s="84" t="s">
+      <c r="D139" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139" s="65"/>
+      <c r="G139" s="66"/>
+      <c r="H139" s="66"/>
+      <c r="I139" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="J139" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="53">
+        <v>53</v>
+      </c>
+      <c r="C140" s="54">
         <v>23</v>
       </c>
-      <c r="F135" s="85"/>
-      <c r="G135" s="86"/>
-      <c r="H135" s="86"/>
-      <c r="I135" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="J135" s="81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="136" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="82">
-        <v>49</v>
-      </c>
-      <c r="C136" s="83">
-        <v>21</v>
-      </c>
-      <c r="D136" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E136" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F136" s="85"/>
-      <c r="G136" s="86"/>
-      <c r="H136" s="86"/>
-      <c r="I136" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="J136" s="81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="137" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="82">
-        <v>50</v>
-      </c>
-      <c r="C137" s="83">
-        <v>21</v>
-      </c>
-      <c r="D137" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F137" s="85"/>
-      <c r="G137" s="86"/>
-      <c r="H137" s="86"/>
-      <c r="I137" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="J137" s="81" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="138" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="82">
-        <v>51</v>
-      </c>
-      <c r="C138" s="83">
-        <v>22</v>
-      </c>
-      <c r="D138" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E138" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F138" s="85"/>
-      <c r="G138" s="86"/>
-      <c r="H138" s="86"/>
-      <c r="I138" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="J138" s="81" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="139" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="82">
-        <v>52</v>
-      </c>
-      <c r="C139" s="83">
-        <v>23</v>
-      </c>
-      <c r="D139" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F139" s="85"/>
-      <c r="G139" s="86"/>
-      <c r="H139" s="86"/>
-      <c r="I139" s="92" t="s">
+      <c r="D140" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F140" s="65"/>
+      <c r="G140" s="66"/>
+      <c r="H140" s="66"/>
+      <c r="I140" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="J139" s="81" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="140" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="82">
-        <v>53</v>
-      </c>
-      <c r="C140" s="83">
-        <v>23</v>
-      </c>
-      <c r="D140" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E140" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F140" s="85"/>
-      <c r="G140" s="86"/>
-      <c r="H140" s="86"/>
-      <c r="I140" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="J140" s="81" t="s">
+      <c r="J140" s="52" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="141" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="82">
+    <row r="141" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="53">
         <v>54</v>
       </c>
-      <c r="C141" s="83">
+      <c r="C141" s="54">
         <v>24</v>
       </c>
-      <c r="D141" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E141" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F141" s="85"/>
-      <c r="G141" s="86"/>
-      <c r="H141" s="86"/>
-      <c r="I141" s="92" t="s">
+      <c r="D141" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F141" s="65"/>
+      <c r="G141" s="66"/>
+      <c r="H141" s="66"/>
+      <c r="I141" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="J141" s="81" t="s">
+      <c r="J141" s="52" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="41">
         <v>55</v>
       </c>
@@ -4762,19 +4764,19 @@
         <v>24</v>
       </c>
       <c r="E142" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F142" s="77"/>
-      <c r="G142" s="78"/>
-      <c r="H142" s="78"/>
-      <c r="I142" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="F142" s="63"/>
+      <c r="G142" s="64"/>
+      <c r="H142" s="64"/>
+      <c r="I142" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="J142" s="81" t="s">
+      <c r="J142" s="52" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="143" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="41">
         <v>56</v>
       </c>
@@ -4784,20 +4786,20 @@
       <c r="D143" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E143" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F143" s="77"/>
-      <c r="G143" s="78"/>
-      <c r="H143" s="78"/>
-      <c r="I143" s="92" t="s">
+      <c r="E143" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F143" s="63"/>
+      <c r="G143" s="64"/>
+      <c r="H143" s="64"/>
+      <c r="I143" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="J143" s="81" t="s">
+      <c r="J143" s="52" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="2:20" s="87" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="41">
         <v>57</v>
       </c>
@@ -4807,20 +4809,20 @@
       <c r="D144" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E144" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F144" s="77"/>
-      <c r="G144" s="78"/>
-      <c r="H144" s="78"/>
-      <c r="I144" s="92" t="s">
+      <c r="E144" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F144" s="63"/>
+      <c r="G144" s="64"/>
+      <c r="H144" s="64"/>
+      <c r="I144" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="J144" s="81" t="s">
+      <c r="J144" s="52" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B145" s="41">
         <v>58</v>
       </c>
@@ -4830,30 +4832,30 @@
       <c r="D145" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E145" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F145" s="77"/>
-      <c r="G145" s="78"/>
-      <c r="H145" s="78"/>
-      <c r="I145" s="92" t="s">
+      <c r="E145" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F145" s="63"/>
+      <c r="G145" s="64"/>
+      <c r="H145" s="64"/>
+      <c r="I145" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="J145" s="81" t="s">
+      <c r="J145" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="K145" s="87"/>
-      <c r="L145" s="87"/>
-      <c r="M145" s="87"/>
-      <c r="N145" s="87"/>
-      <c r="O145" s="87"/>
-      <c r="P145" s="87"/>
-      <c r="Q145" s="87"/>
-      <c r="R145" s="87"/>
-      <c r="S145" s="87"/>
-      <c r="T145" s="87"/>
-    </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="K145" s="55"/>
+      <c r="L145" s="55"/>
+      <c r="M145" s="55"/>
+      <c r="N145" s="55"/>
+      <c r="O145" s="55"/>
+      <c r="P145" s="55"/>
+      <c r="Q145" s="55"/>
+      <c r="R145" s="55"/>
+      <c r="S145" s="55"/>
+      <c r="T145" s="55"/>
+    </row>
+    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B146" s="49" t="s">
         <v>41</v>
       </c>
@@ -4864,27 +4866,27 @@
         <v>22</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F146" s="79"/>
-      <c r="G146" s="80"/>
-      <c r="H146" s="80"/>
-      <c r="J146" s="81"/>
-      <c r="K146" s="87"/>
-      <c r="L146" s="87"/>
-      <c r="M146" s="87"/>
-      <c r="N146" s="87"/>
-      <c r="O146" s="87"/>
-      <c r="P146" s="87"/>
-      <c r="Q146" s="87"/>
-      <c r="R146" s="90"/>
-      <c r="S146" s="90"/>
-      <c r="T146" s="90"/>
+        <v>34</v>
+      </c>
+      <c r="F146" s="67"/>
+      <c r="G146" s="68"/>
+      <c r="H146" s="68"/>
+      <c r="J146" s="52"/>
+      <c r="K146" s="55"/>
+      <c r="L146" s="55"/>
+      <c r="M146" s="55"/>
+      <c r="N146" s="55"/>
+      <c r="O146" s="55"/>
+      <c r="P146" s="55"/>
+      <c r="Q146" s="55"/>
+      <c r="R146" s="58"/>
+      <c r="S146" s="58"/>
+      <c r="T146" s="58"/>
       <c r="U146" s="35"/>
       <c r="V146" s="35"/>
       <c r="W146" s="35"/>
     </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B147" s="40">
         <v>59</v>
       </c>
@@ -4895,9 +4897,9 @@
       <c r="E147" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F147" s="75"/>
-      <c r="G147" s="76"/>
-      <c r="H147" s="76"/>
+      <c r="F147" s="61"/>
+      <c r="G147" s="62"/>
+      <c r="H147" s="62"/>
       <c r="J147" s="37"/>
       <c r="K147" s="35"/>
       <c r="L147" s="35"/>
@@ -4913,7 +4915,7 @@
       <c r="V147" s="35"/>
       <c r="W147" s="35"/>
     </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B148" s="40">
         <v>60</v>
       </c>
@@ -4924,9 +4926,9 @@
       <c r="E148" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F148" s="75"/>
-      <c r="G148" s="76"/>
-      <c r="H148" s="76"/>
+      <c r="F148" s="61"/>
+      <c r="G148" s="62"/>
+      <c r="H148" s="62"/>
       <c r="J148" s="37"/>
       <c r="K148" s="35"/>
       <c r="L148" s="35"/>
@@ -4942,7 +4944,7 @@
       <c r="V148" s="35"/>
       <c r="W148" s="35"/>
     </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B149" s="40">
         <v>61</v>
       </c>
@@ -4953,9 +4955,9 @@
       <c r="E149" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F149" s="75"/>
-      <c r="G149" s="76"/>
-      <c r="H149" s="76"/>
+      <c r="F149" s="61"/>
+      <c r="G149" s="62"/>
+      <c r="H149" s="62"/>
       <c r="J149" s="37"/>
       <c r="K149" s="35"/>
       <c r="L149" s="35"/>
@@ -4971,7 +4973,7 @@
       <c r="V149" s="35"/>
       <c r="W149" s="35"/>
     </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B150" s="40">
         <v>62</v>
       </c>
@@ -4982,9 +4984,9 @@
       <c r="E150" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F150" s="75"/>
-      <c r="G150" s="76"/>
-      <c r="H150" s="76"/>
+      <c r="F150" s="61"/>
+      <c r="G150" s="62"/>
+      <c r="H150" s="62"/>
       <c r="J150" s="37"/>
       <c r="K150" s="35"/>
       <c r="L150" s="35"/>
@@ -5000,7 +5002,7 @@
       <c r="V150" s="35"/>
       <c r="W150" s="35"/>
     </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B151" s="40">
         <v>63</v>
       </c>
@@ -5011,9 +5013,9 @@
       <c r="E151" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F151" s="75"/>
-      <c r="G151" s="76"/>
-      <c r="H151" s="76"/>
+      <c r="F151" s="61"/>
+      <c r="G151" s="62"/>
+      <c r="H151" s="62"/>
       <c r="J151" s="37"/>
       <c r="K151" s="35"/>
       <c r="L151" s="35"/>
@@ -5029,7 +5031,7 @@
       <c r="V151" s="35"/>
       <c r="W151" s="35"/>
     </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B152" s="40">
         <v>64</v>
       </c>
@@ -5040,9 +5042,9 @@
       <c r="E152" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F152" s="75"/>
-      <c r="G152" s="76"/>
-      <c r="H152" s="76"/>
+      <c r="F152" s="61"/>
+      <c r="G152" s="62"/>
+      <c r="H152" s="62"/>
       <c r="J152" s="37"/>
       <c r="K152" s="35"/>
       <c r="L152" s="35"/>
@@ -5058,7 +5060,7 @@
       <c r="V152" s="35"/>
       <c r="W152" s="35"/>
     </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B153" s="40">
         <v>65</v>
       </c>
@@ -5069,9 +5071,9 @@
       <c r="E153" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F153" s="75"/>
-      <c r="G153" s="76"/>
-      <c r="H153" s="76"/>
+      <c r="F153" s="61"/>
+      <c r="G153" s="62"/>
+      <c r="H153" s="62"/>
       <c r="J153" s="37"/>
       <c r="K153" s="35"/>
       <c r="L153" s="35"/>
@@ -5087,7 +5089,7 @@
       <c r="V153" s="35"/>
       <c r="W153" s="35"/>
     </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B154" s="40">
         <v>66</v>
       </c>
@@ -5098,9 +5100,9 @@
       <c r="E154" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F154" s="75"/>
-      <c r="G154" s="76"/>
-      <c r="H154" s="76"/>
+      <c r="F154" s="61"/>
+      <c r="G154" s="62"/>
+      <c r="H154" s="62"/>
       <c r="J154" s="37"/>
       <c r="K154" s="35"/>
       <c r="L154" s="35"/>
@@ -5116,7 +5118,7 @@
       <c r="V154" s="35"/>
       <c r="W154" s="35"/>
     </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B155" s="40">
         <v>67</v>
       </c>
@@ -5127,9 +5129,9 @@
       <c r="E155" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F155" s="75"/>
-      <c r="G155" s="76"/>
-      <c r="H155" s="76"/>
+      <c r="F155" s="61"/>
+      <c r="G155" s="62"/>
+      <c r="H155" s="62"/>
       <c r="J155" s="37"/>
       <c r="K155" s="35"/>
       <c r="L155" s="35"/>
@@ -5145,7 +5147,7 @@
       <c r="V155" s="35"/>
       <c r="W155" s="35"/>
     </row>
-    <row r="156" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B156" s="40">
         <v>68</v>
       </c>
@@ -5156,9 +5158,9 @@
       <c r="E156" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F156" s="75"/>
-      <c r="G156" s="76"/>
-      <c r="H156" s="76"/>
+      <c r="F156" s="61"/>
+      <c r="G156" s="62"/>
+      <c r="H156" s="62"/>
       <c r="J156" s="37"/>
       <c r="K156" s="35"/>
       <c r="L156" s="35"/>
@@ -5174,7 +5176,7 @@
       <c r="V156" s="35"/>
       <c r="W156" s="35"/>
     </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B157" s="40">
         <v>69</v>
       </c>
@@ -5185,9 +5187,9 @@
       <c r="E157" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F157" s="75"/>
-      <c r="G157" s="76"/>
-      <c r="H157" s="76"/>
+      <c r="F157" s="61"/>
+      <c r="G157" s="62"/>
+      <c r="H157" s="62"/>
       <c r="J157" s="37"/>
       <c r="K157" s="35"/>
       <c r="L157" s="35"/>
@@ -5203,7 +5205,7 @@
       <c r="V157" s="35"/>
       <c r="W157" s="35"/>
     </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B158" s="40">
         <v>70</v>
       </c>
@@ -5214,9 +5216,9 @@
       <c r="E158" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F158" s="75"/>
-      <c r="G158" s="76"/>
-      <c r="H158" s="76"/>
+      <c r="F158" s="61"/>
+      <c r="G158" s="62"/>
+      <c r="H158" s="62"/>
       <c r="J158" s="37"/>
       <c r="K158" s="35"/>
       <c r="L158" s="35"/>
@@ -5232,7 +5234,7 @@
       <c r="V158" s="35"/>
       <c r="W158" s="35"/>
     </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B159" s="40">
         <v>71</v>
       </c>
@@ -5243,9 +5245,9 @@
       <c r="E159" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F159" s="75"/>
-      <c r="G159" s="76"/>
-      <c r="H159" s="76"/>
+      <c r="F159" s="61"/>
+      <c r="G159" s="62"/>
+      <c r="H159" s="62"/>
       <c r="J159" s="37"/>
       <c r="K159" s="35"/>
       <c r="L159" s="35"/>
@@ -5261,7 +5263,7 @@
       <c r="V159" s="35"/>
       <c r="W159" s="35"/>
     </row>
-    <row r="160" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B160" s="40">
         <v>72</v>
       </c>
@@ -5272,9 +5274,9 @@
       <c r="E160" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F160" s="75"/>
-      <c r="G160" s="76"/>
-      <c r="H160" s="76"/>
+      <c r="F160" s="61"/>
+      <c r="G160" s="62"/>
+      <c r="H160" s="62"/>
       <c r="J160" s="37"/>
       <c r="K160" s="35"/>
       <c r="L160" s="35"/>
@@ -5290,7 +5292,7 @@
       <c r="V160" s="35"/>
       <c r="W160" s="35"/>
     </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B161" s="40">
         <v>73</v>
       </c>
@@ -5301,9 +5303,9 @@
       <c r="E161" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F161" s="75"/>
-      <c r="G161" s="76"/>
-      <c r="H161" s="76"/>
+      <c r="F161" s="61"/>
+      <c r="G161" s="62"/>
+      <c r="H161" s="62"/>
       <c r="J161" s="37"/>
       <c r="K161" s="35"/>
       <c r="L161" s="35"/>
@@ -5319,7 +5321,7 @@
       <c r="V161" s="35"/>
       <c r="W161" s="35"/>
     </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B162" s="40">
         <v>74</v>
       </c>
@@ -5330,9 +5332,9 @@
       <c r="E162" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F162" s="75"/>
-      <c r="G162" s="76"/>
-      <c r="H162" s="76"/>
+      <c r="F162" s="61"/>
+      <c r="G162" s="62"/>
+      <c r="H162" s="62"/>
       <c r="J162" s="37"/>
       <c r="K162" s="35"/>
       <c r="L162" s="35"/>
@@ -5351,81 +5353,48 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="+eYN/D1Zx96xuHzbAd6lqbAfvPf/g7QkJLSxJXjeN2QDrrZlLNtBTnFlrwRCfCn8nGXsDKlNMBJUDlkVMHrGKA==" saltValue="KIqc1mK8EKl/ATE3lKq2bA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="141">
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="J88:V88"/>
+    <mergeCell ref="J89:V89"/>
+    <mergeCell ref="T93:AF93"/>
+    <mergeCell ref="J101:O101"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="J97:O97"/>
+    <mergeCell ref="J98:O98"/>
+    <mergeCell ref="J99:O99"/>
+    <mergeCell ref="J100:O100"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="J90:O90"/>
+    <mergeCell ref="J91:O91"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -5450,61 +5419,94 @@
     <mergeCell ref="C70:G70"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="J88:V88"/>
-    <mergeCell ref="J89:V89"/>
-    <mergeCell ref="T93:AF93"/>
-    <mergeCell ref="J101:O101"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="J97:O97"/>
-    <mergeCell ref="J98:O98"/>
-    <mergeCell ref="J99:O99"/>
-    <mergeCell ref="J100:O100"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="J90:O90"/>
-    <mergeCell ref="J91:O91"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F154:H154"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Instrucciones!$A$7:$A$9</xm:f>
           </x14:formula1>
           <xm:sqref>D88:D162</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{8F48BDF7-529F-8A40-BA28-709A6567182A}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Instrucciones!$A$13:$A$15</xm:f>
           </x14:formula1>
@@ -5517,36 +5519,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -5554,7 +5556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -5562,7 +5564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -5570,7 +5572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
@@ -5578,8 +5580,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -5603,7 +5605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
